--- a/Resources/InputData.xlsx
+++ b/Resources/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,16 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Kia@2024</t>
+    <t>Shivaji</t>
+  </si>
+  <si>
+    <t>Dabolim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +35,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,16 +64,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,30 +376,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>19048</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45448</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/InputData.xlsx
+++ b/Resources/InputData.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>45448</v>
+        <v>45573</v>
       </c>
       <c r="D1">
         <v>5</v>

--- a/Resources/InputData.xlsx
+++ b/Resources/InputData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -379,7 +380,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>45573</v>
+        <v>45607</v>
       </c>
       <c r="D1">
         <v>5</v>
